--- a/data/top-twenty-genes.xlsx
+++ b/data/top-twenty-genes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geraldmccollam/2019Code/Atallah/methylation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02650F0-2EF9-7C42-8BB6-8C0827349C62}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E558D42E-DBCD-DF4A-9FAA-49D6C6D81E95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="1960" windowWidth="26840" windowHeight="14440" xr2:uid="{7089E50E-A0F9-414D-B277-69689A668BE4}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
